--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daviddo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daviddo/Documents/AktuelleProjekte/BarBrawler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAAC799-2B74-B54F-90CC-F5C439311ABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D945CA3-C61D-F643-B4C3-601D0632A259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{FF582598-56D4-F442-A9A1-ECCD586ECC7A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{FF582598-56D4-F442-A9A1-ECCD586ECC7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -223,7 +223,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -299,6 +299,12 @@
       <color theme="0"/>
       <name val="Calibri (Textkörper)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -371,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -397,6 +403,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -713,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED58F5F-FE23-EB4F-9373-159F7356D01D}">
   <dimension ref="B1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -887,8 +895,8 @@
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
     </row>
     <row r="17" spans="2:17">
       <c r="B17" t="s">
@@ -1004,7 +1012,7 @@
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+      <c r="K26" s="26"/>
       <c r="M26" s="21" t="s">
         <v>55</v>
       </c>

--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daviddo/Documents/AktuelleProjekte/BarBrawler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FlorianRapp\Documents\BarBrawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D945CA3-C61D-F643-B4C3-601D0632A259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878A3DB6-A16D-4006-9435-B48546A8E503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{FF582598-56D4-F442-A9A1-ECCD586ECC7A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FF582598-56D4-F442-A9A1-ECCD586ECC7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -132,12 +132,6 @@
     <t>Sundar Arz</t>
   </si>
   <si>
-    <t>Flo Rapp</t>
-  </si>
-  <si>
-    <t>Christof Schwarenberger</t>
-  </si>
-  <si>
     <t>1.1.3.1 Grundlegendes Verhalten (Schlagen, schießen etc.)</t>
   </si>
   <si>
@@ -217,6 +211,12 @@
   </si>
   <si>
     <t>Erstellung der Texturen (Boden, Wände, etc.)</t>
+  </si>
+  <si>
+    <t>Florian Rapp</t>
+  </si>
+  <si>
+    <t>Christof Schwarzenberger</t>
   </si>
 </sst>
 </file>
@@ -721,15 +721,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED58F5F-FE23-EB4F-9373-159F7356D01D}">
   <dimension ref="B1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="69" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="51.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="51.796875" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22">
@@ -743,7 +743,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" s="4"/>
       <c r="S2" s="2"/>
@@ -756,7 +756,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F3" s="5"/>
       <c r="S3" s="2"/>
@@ -769,25 +769,25 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="2:22">
       <c r="C5" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:22">
       <c r="C6" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -814,9 +814,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="19">
+    <row r="11" spans="2:22" ht="18">
       <c r="C11" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>4</v>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:22" ht="19">
+    <row r="15" spans="2:22" ht="18">
       <c r="B15" s="15" t="s">
         <v>15</v>
       </c>
@@ -891,7 +891,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="9"/>
@@ -903,7 +903,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="9"/>
@@ -920,7 +920,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
@@ -933,10 +933,10 @@
     </row>
     <row r="20" spans="2:17">
       <c r="B20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
@@ -947,12 +947,12 @@
       <c r="P20" s="12"/>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="2:17" ht="19">
+    <row r="21" spans="2:17" ht="18">
       <c r="B21" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -961,15 +961,15 @@
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="2:17" ht="19">
+    <row r="22" spans="2:17" ht="18">
       <c r="B22" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -982,53 +982,53 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:17" ht="19">
+    <row r="25" spans="2:17" ht="18">
       <c r="B25" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K25" s="9"/>
       <c r="N25" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
     </row>
-    <row r="26" spans="2:17" ht="19">
+    <row r="26" spans="2:17" ht="18">
       <c r="B26" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="26"/>
       <c r="M26" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
     </row>
-    <row r="27" spans="2:17" ht="19">
+    <row r="27" spans="2:17" ht="18">
       <c r="B27" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L27" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
@@ -1041,7 +1041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="19">
+    <row r="30" spans="2:17" ht="18">
       <c r="B30" s="18" t="s">
         <v>21</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -1063,7 +1063,7 @@
         <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -1080,12 +1080,12 @@
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
     </row>
-    <row r="34" spans="2:19" ht="19">
+    <row r="34" spans="2:19" ht="18">
       <c r="B34" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
@@ -1093,16 +1093,16 @@
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
     </row>
-    <row r="35" spans="2:19" ht="19">
+    <row r="35" spans="2:19" ht="18">
       <c r="B35" s="18" t="s">
         <v>23</v>
       </c>
       <c r="J35" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K35" s="14"/>
       <c r="N35" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
@@ -1110,45 +1110,45 @@
     </row>
     <row r="37" spans="2:19" ht="21">
       <c r="B37" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="2:19" ht="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" ht="18">
       <c r="B38" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
     </row>
-    <row r="39" spans="2:19" ht="19">
+    <row r="39" spans="2:19" ht="18">
       <c r="B39" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="J39" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="C39" t="s">
-        <v>40</v>
-      </c>
-      <c r="J39" s="20" t="s">
-        <v>50</v>
       </c>
       <c r="K39" s="19"/>
       <c r="L39" s="10"/>
       <c r="N39" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O39" s="20"/>
       <c r="P39" s="20"/>
       <c r="Q39" s="20"/>
     </row>
-    <row r="40" spans="2:19" ht="19">
+    <row r="40" spans="2:19" ht="18">
       <c r="B40" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
@@ -1156,10 +1156,10 @@
     </row>
     <row r="42" spans="2:19" ht="21">
       <c r="B42" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q42" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R42" s="24"/>
       <c r="S42" s="24"/>

--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FlorianRapp\Documents\BarBrawler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daviddo/Documents/AktuelleProjekte/BarBrawler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878A3DB6-A16D-4006-9435-B48546A8E503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43E7597-6C5D-914F-BC83-394BD893678D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FF582598-56D4-F442-A9A1-ECCD586ECC7A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{FF582598-56D4-F442-A9A1-ECCD586ECC7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
   <si>
     <t>1. Gameplay</t>
   </si>
@@ -195,35 +195,62 @@
     <t>Überarbeitung der Models</t>
   </si>
   <si>
-    <t>Überarbeitung und optimierung des Levellayouts</t>
-  </si>
-  <si>
-    <t>Spawning der Gegner</t>
-  </si>
-  <si>
-    <t>Optimierung der Animationen</t>
-  </si>
-  <si>
     <t>Bewegung, Schlag</t>
   </si>
   <si>
     <t>Fertigstellung des Projekts</t>
   </si>
   <si>
-    <t>Erstellung der Texturen (Boden, Wände, etc.)</t>
-  </si>
-  <si>
     <t>Florian Rapp</t>
   </si>
   <si>
     <t>Christof Schwarzenberger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning und implementierung der Gegner inkl. Pause für den Spieler </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimierung </t>
+  </si>
+  <si>
+    <t>der Animationen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Optimierung</t>
+  </si>
+  <si>
+    <t>des Level layouts</t>
+  </si>
+  <si>
+    <t>Fertigstellung</t>
+  </si>
+  <si>
+    <t>Erstellung des Menüs</t>
+  </si>
+  <si>
+    <t>Erstellung der Texturen</t>
+  </si>
+  <si>
+    <t>Überarbeitung</t>
+  </si>
+  <si>
+    <t>Erstellung</t>
+  </si>
+  <si>
+    <t>Erstellung der Gegner</t>
+  </si>
+  <si>
+    <t>Erstellung Spielermodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einlesung in die verschiedenen Themen </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -301,9 +328,22 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Textkörper)"/>
     </font>
   </fonts>
   <fills count="9">
@@ -377,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -403,8 +443,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -719,17 +766,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED58F5F-FE23-EB4F-9373-159F7356D01D}">
-  <dimension ref="B1:V42"/>
+  <dimension ref="B1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="69" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="51.796875" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" customWidth="1"/>
-    <col min="5" max="5" width="10.796875" customWidth="1"/>
+    <col min="2" max="2" width="51.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22">
@@ -775,7 +825,7 @@
     </row>
     <row r="5" spans="2:22">
       <c r="C5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
         <v>39</v>
@@ -784,385 +834,513 @@
     </row>
     <row r="6" spans="2:22">
       <c r="C6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="9" spans="2:22" ht="21">
-      <c r="E9" s="16" t="s">
+    <row r="8" spans="2:22">
+      <c r="C8" s="25"/>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="C9" s="25"/>
+    </row>
+    <row r="10" spans="2:22" ht="21">
+      <c r="E10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16" t="s">
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16" t="s">
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="18">
-      <c r="C11" s="17" t="s">
+    <row r="12" spans="2:22" ht="19">
+      <c r="C12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D12" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L12" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="M12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="N12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="17" t="s">
+      <c r="O12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="P11" s="17" t="s">
+      <c r="P12" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="Q11" s="17" t="s">
+      <c r="Q12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="R11" s="17" t="s">
+      <c r="R12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="S11" s="17" t="s">
+      <c r="S12" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:22" ht="21">
-      <c r="B13" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+    <row r="13" spans="2:22">
+      <c r="H13" s="25"/>
     </row>
     <row r="14" spans="2:22" ht="21">
       <c r="B14" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="2:22" ht="21">
+      <c r="B15" s="16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:22" ht="18">
-      <c r="B15" s="15" t="s">
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" spans="2:22" ht="19">
+      <c r="B16" s="15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="2:22">
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="2:17">
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="32"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="2:17">
       <c r="B18" t="s">
-        <v>18</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="22"/>
     </row>
     <row r="19" spans="2:17">
       <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="2:17">
       <c r="B20" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="7"/>
-    </row>
-    <row r="21" spans="2:17" ht="18">
-      <c r="B21" s="15" t="s">
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="7"/>
+    </row>
+    <row r="22" spans="2:17" ht="19">
+      <c r="B22" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-    </row>
-    <row r="22" spans="2:17" ht="18">
-      <c r="B22" s="15" t="s">
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="2:17" ht="19">
+      <c r="B23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>43</v>
       </c>
-      <c r="J22" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-    </row>
-    <row r="24" spans="2:17" ht="21">
-      <c r="B24" s="16" t="s">
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J23" s="20"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="25"/>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" spans="2:17" ht="21">
+      <c r="B25" s="16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="2:17" ht="18">
-      <c r="B25" s="15" t="s">
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+    </row>
+    <row r="26" spans="2:17" ht="19">
+      <c r="B26" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>36</v>
       </c>
-      <c r="J25" s="22" t="s">
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="N25" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-    </row>
-    <row r="26" spans="2:17" ht="18">
-      <c r="B26" s="15" t="s">
+      <c r="K26" s="9"/>
+      <c r="N26" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="O26" s="25"/>
+      <c r="P26" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q26" s="9"/>
+    </row>
+    <row r="27" spans="2:17" ht="19">
+      <c r="B27" s="15" t="s">
         <v>13</v>
-      </c>
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="26"/>
-      <c r="M26" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-    </row>
-    <row r="27" spans="2:17" ht="18">
-      <c r="B27" s="15" t="s">
-        <v>14</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
       </c>
-      <c r="L27" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27" s="8"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="25"/>
+      <c r="M27" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-    </row>
-    <row r="29" spans="2:17" ht="21">
-      <c r="B29" s="16" t="s">
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+    </row>
+    <row r="28" spans="2:17" ht="19">
+      <c r="B28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="K28" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="L28" s="21"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q28" s="21"/>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+    </row>
+    <row r="30" spans="2:17" ht="21">
+      <c r="B30" s="16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="2:17" ht="18">
-      <c r="B30" s="18" t="s">
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+    </row>
+    <row r="31" spans="2:17" ht="19">
+      <c r="B31" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="2:17">
-      <c r="B31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" t="s">
-        <v>42</v>
-      </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
     </row>
     <row r="32" spans="2:17">
       <c r="B32" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
-      </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I32" s="29"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="M32" s="23"/>
     </row>
     <row r="33" spans="2:19">
       <c r="B33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="M33" s="23"/>
+    </row>
+    <row r="34" spans="2:19">
+      <c r="B34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-    </row>
-    <row r="34" spans="2:19" ht="18">
-      <c r="B34" s="18" t="s">
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="11"/>
+    </row>
+    <row r="35" spans="2:19" ht="19">
+      <c r="B35" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>40</v>
       </c>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-    </row>
-    <row r="35" spans="2:19" ht="18">
-      <c r="B35" s="18" t="s">
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="M35" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="N35" s="8"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q35" s="8"/>
+    </row>
+    <row r="36" spans="2:19" ht="19">
+      <c r="B36" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J35" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="K35" s="14"/>
-      <c r="N35" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-    </row>
-    <row r="37" spans="2:19" ht="21">
-      <c r="B37" s="16" t="s">
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="K36" s="14"/>
+      <c r="N36" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="O36" s="25"/>
+      <c r="P36" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="38" spans="2:19" ht="21">
+      <c r="B38" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="2:19" ht="18">
-      <c r="B38" s="15" t="s">
+    <row r="39" spans="2:19" ht="19">
+      <c r="B39" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>39</v>
       </c>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-    </row>
-    <row r="39" spans="2:19" ht="18">
-      <c r="B39" s="15" t="s">
+      <c r="O39" s="25"/>
+      <c r="P39" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q39" s="7"/>
+    </row>
+    <row r="40" spans="2:19" ht="19">
+      <c r="B40" s="15" t="s">
         <v>46</v>
-      </c>
-      <c r="C39" t="s">
-        <v>38</v>
-      </c>
-      <c r="J39" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K39" s="19"/>
-      <c r="L39" s="10"/>
-      <c r="N39" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-    </row>
-    <row r="40" spans="2:19" ht="18">
-      <c r="B40" s="15" t="s">
-        <v>47</v>
       </c>
       <c r="C40" t="s">
         <v>38</v>
       </c>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-    </row>
-    <row r="42" spans="2:19" ht="21">
-      <c r="B42" s="16" t="s">
+      <c r="I40" s="25"/>
+      <c r="J40" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K40" s="19"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="N40" s="20"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q40" s="20"/>
+    </row>
+    <row r="41" spans="2:19" ht="19">
+      <c r="B41" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O41" s="25"/>
+      <c r="P41" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q41" s="10"/>
+    </row>
+    <row r="43" spans="2:19" ht="21">
+      <c r="B43" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="Q42" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="R42" s="24"/>
-      <c r="S42" s="24"/>
+      <c r="Q43" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daviddo/Documents/AktuelleProjekte/BarBrawler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sun/OneDrive - bwedu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43E7597-6C5D-914F-BC83-394BD893678D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="13_ncr:1_{5A1BACAB-9FAF-460C-A43F-13DE1897AC78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D88E8BEF-C52B-8240-B0ED-72BC258EB99A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{FF582598-56D4-F442-A9A1-ECCD586ECC7A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{FF582598-56D4-F442-A9A1-ECCD586ECC7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
   <si>
     <t>1. Gameplay</t>
   </si>
@@ -90,9 +90,6 @@
     <t>1.1.3 Künstliche Intelligenz</t>
   </si>
   <si>
-    <t>1.1.3.1 Verfolgen des Spielers</t>
-  </si>
-  <si>
     <t>3. Charaktere</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>Sundar Arz</t>
   </si>
   <si>
-    <t>1.1.3.1 Grundlegendes Verhalten (Schlagen, schießen etc.)</t>
-  </si>
-  <si>
     <t>Personen</t>
   </si>
   <si>
@@ -156,12 +150,6 @@
     <t>cs267</t>
   </si>
   <si>
-    <t>sa070, fr061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sa070, dt035, </t>
-  </si>
-  <si>
     <t>de030, dt035</t>
   </si>
   <si>
@@ -180,9 +168,6 @@
     <t>Grobe Funktionsweise</t>
   </si>
   <si>
-    <t>sa070, dt035</t>
-  </si>
-  <si>
     <t>Design und Überarbeitung</t>
   </si>
   <si>
@@ -207,9 +192,6 @@
     <t>Christof Schwarzenberger</t>
   </si>
   <si>
-    <t xml:space="preserve">Spawning und implementierung der Gegner inkl. Pause für den Spieler </t>
-  </si>
-  <si>
     <t xml:space="preserve">Optimierung </t>
   </si>
   <si>
@@ -225,32 +207,32 @@
     <t>Fertigstellung</t>
   </si>
   <si>
-    <t>Erstellung des Menüs</t>
-  </si>
-  <si>
-    <t>Erstellung der Texturen</t>
-  </si>
-  <si>
     <t>Überarbeitung</t>
   </si>
   <si>
-    <t>Erstellung</t>
-  </si>
-  <si>
-    <t>Erstellung der Gegner</t>
-  </si>
-  <si>
-    <t>Erstellung Spielermodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einlesung in die verschiedenen Themen </t>
+    <t>cs267,fr061,sa070</t>
+  </si>
+  <si>
+    <t>2.2.1 Raum</t>
+  </si>
+  <si>
+    <t>2.2.2 Möbel</t>
+  </si>
+  <si>
+    <t>2.2.3 Gegenstände</t>
+  </si>
+  <si>
+    <t>sa070,cs267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einarbeitung in die verschiedenen Themen </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -288,13 +270,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="9" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="7" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -323,11 +298,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri (Textkörper)"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -344,6 +314,11 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Textkörper)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="9">
@@ -417,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -430,31 +405,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -470,7 +444,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -766,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED58F5F-FE23-EB4F-9373-159F7356D01D}">
-  <dimension ref="B1:V43"/>
+  <dimension ref="B1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="105" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -790,10 +764,10 @@
     </row>
     <row r="2" spans="2:22">
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F2" s="4"/>
       <c r="S2" s="2"/>
@@ -803,10 +777,10 @@
     </row>
     <row r="3" spans="2:22">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F3" s="5"/>
       <c r="S3" s="2"/>
@@ -816,534 +790,563 @@
     </row>
     <row r="4" spans="2:22">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="2:22">
       <c r="C5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:22">
       <c r="C6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F6" s="8"/>
     </row>
     <row r="8" spans="2:22">
-      <c r="C8" s="25"/>
+      <c r="C8" s="21"/>
     </row>
     <row r="9" spans="2:22">
-      <c r="C9" s="25"/>
+      <c r="C9" s="21"/>
     </row>
     <row r="10" spans="2:22" ht="21">
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16" t="s">
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16" t="s">
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="19">
+      <c r="C12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" ht="19">
-      <c r="C12" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="17" t="s">
+      <c r="O12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="Q12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="17" t="s">
+      <c r="R12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="O12" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="P12" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="R12" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="S12" s="17" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="13" spans="2:22">
-      <c r="H13" s="25"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" spans="2:22" ht="21">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>70</v>
+      <c r="E14" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="25"/>
+      <c r="H14" s="21"/>
     </row>
     <row r="15" spans="2:22" ht="21">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="25"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="2:22" ht="19">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="N16" s="21"/>
     </row>
     <row r="17" spans="2:17">
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="32"/>
+        <v>34</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="27"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="M17" s="9"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="M17" s="18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18" spans="2:17">
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="30"/>
+        <v>34</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="M18" s="22"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="24"/>
+      <c r="N18" s="18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19" spans="2:17">
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="2:17">
-      <c r="B20" t="s">
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="2:17" ht="19">
+      <c r="B20" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+    </row>
+    <row r="21" spans="2:17" ht="19">
+      <c r="B21" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="2:17" ht="21">
+      <c r="B23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="2:17" ht="19">
+      <c r="B24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="K24" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="O24" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="P24" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q24" s="9"/>
+    </row>
+    <row r="25" spans="2:17" ht="19">
+      <c r="B25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="M25" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+    </row>
+    <row r="26" spans="2:17" ht="19">
+      <c r="B26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="21"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="2:17" ht="19">
+      <c r="B27" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="2:17">
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="21"/>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="26"/>
+    </row>
+    <row r="30" spans="2:17" ht="19">
+      <c r="B30" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="21"/>
+    </row>
+    <row r="31" spans="2:17">
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="19"/>
+    </row>
+    <row r="32" spans="2:17">
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="2:17" ht="19">
+      <c r="B33" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="N35" s="21"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+    </row>
+    <row r="36" spans="2:17" ht="21">
+      <c r="B36" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+    </row>
+    <row r="37" spans="2:17" ht="19">
+      <c r="B37" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="B38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="M38" s="24"/>
+    </row>
+    <row r="39" spans="2:17">
+      <c r="B39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="N39" s="6"/>
+    </row>
+    <row r="40" spans="2:17">
+      <c r="B40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="23"/>
+    </row>
+    <row r="41" spans="2:17" ht="19">
+      <c r="B41" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="21"/>
+    </row>
+    <row r="42" spans="2:17" ht="19">
+      <c r="B42" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" s="21"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="K42" s="31"/>
+      <c r="N42" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="O42" s="21"/>
+      <c r="P42" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q42" s="21"/>
+    </row>
+    <row r="44" spans="2:17" ht="21">
+      <c r="B44" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" ht="19">
+      <c r="B45" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="6"/>
-    </row>
-    <row r="21" spans="2:17">
-      <c r="B21" t="s">
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+      <c r="O45" s="21"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="7"/>
+    </row>
+    <row r="46" spans="2:17" ht="19">
+      <c r="B46" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" t="s">
+        <v>36</v>
+      </c>
+      <c r="I46" s="21"/>
+      <c r="J46" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L46" s="16"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q46" s="24"/>
+    </row>
+    <row r="47" spans="2:17" ht="19">
+      <c r="B47" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+      <c r="M47" s="30"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" ht="21">
+      <c r="B49" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="7"/>
-    </row>
-    <row r="22" spans="2:17" ht="19">
-      <c r="B22" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-    </row>
-    <row r="23" spans="2:17" ht="19">
-      <c r="B23" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J23" s="20"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="25"/>
-    </row>
-    <row r="24" spans="2:17">
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-    </row>
-    <row r="25" spans="2:17" ht="21">
-      <c r="B25" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-    </row>
-    <row r="26" spans="2:17" ht="19">
-      <c r="B26" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K26" s="9"/>
-      <c r="N26" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="O26" s="25"/>
-      <c r="P26" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q26" s="9"/>
-    </row>
-    <row r="27" spans="2:17" ht="19">
-      <c r="B27" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="25"/>
-      <c r="M27" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="N27" s="8"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-    </row>
-    <row r="28" spans="2:17" ht="19">
-      <c r="B28" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="K28" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="L28" s="21"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q28" s="21"/>
-    </row>
-    <row r="29" spans="2:17">
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-    </row>
-    <row r="30" spans="2:17" ht="21">
-      <c r="B30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-    </row>
-    <row r="31" spans="2:17" ht="19">
-      <c r="B31" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-    </row>
-    <row r="32" spans="2:17">
-      <c r="B32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="I32" s="29"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="M32" s="23"/>
-    </row>
-    <row r="33" spans="2:19">
-      <c r="B33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="M33" s="23"/>
-    </row>
-    <row r="34" spans="2:19">
-      <c r="B34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="11"/>
-    </row>
-    <row r="35" spans="2:19" ht="19">
-      <c r="B35" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="M35" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="N35" s="8"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q35" s="8"/>
-    </row>
-    <row r="36" spans="2:19" ht="19">
-      <c r="B36" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="K36" s="14"/>
-      <c r="N36" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="O36" s="25"/>
-      <c r="P36" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q36" s="6"/>
-    </row>
-    <row r="38" spans="2:19" ht="21">
-      <c r="B38" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" ht="19">
-      <c r="B39" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" t="s">
-        <v>39</v>
-      </c>
-      <c r="O39" s="25"/>
-      <c r="P39" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q39" s="7"/>
-    </row>
-    <row r="40" spans="2:19" ht="19">
-      <c r="B40" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I40" s="25"/>
-      <c r="J40" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K40" s="19"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="20" t="s">
+      <c r="Q49" s="24"/>
+      <c r="R49" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="N40" s="20"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q40" s="20"/>
-    </row>
-    <row r="41" spans="2:19" ht="19">
-      <c r="B41" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" t="s">
-        <v>38</v>
-      </c>
-      <c r="O41" s="25"/>
-      <c r="P41" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q41" s="10"/>
-    </row>
-    <row r="43" spans="2:19" ht="21">
-      <c r="B43" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q43" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="R43" s="24"/>
-      <c r="S43" s="24"/>
+      <c r="S49" s="20"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>